--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_131.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_131.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>2.0826</v>
+        <v>2.0737</v>
       </c>
       <c r="J3" t="n">
-        <v>0.35</v>
+        <v>23.95</v>
       </c>
       <c r="K3" t="n">
-        <v>13.09</v>
+        <v>891.77</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="R3" t="n">
-        <v>934.8462</v>
+        <v>998.6788</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.931</v>
+        <v>1.9322</v>
       </c>
       <c r="J4" t="n">
-        <v>1.4</v>
+        <v>24.11</v>
       </c>
       <c r="K4" t="n">
-        <v>48.53</v>
+        <v>836.42</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>845.4403</v>
+        <v>899.2092</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>8.379899999999999</v>
+        <v>8.137</v>
       </c>
       <c r="J5" t="n">
-        <v>26.84</v>
+        <v>26.7</v>
       </c>
       <c r="K5" t="n">
-        <v>4038.03</v>
+        <v>3901.07</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>7.96</v>
+        <v>7.09</v>
       </c>
       <c r="R5" t="n">
-        <v>3485.4012</v>
+        <v>3418.7733</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>10.2246</v>
+        <v>9.8598</v>
       </c>
       <c r="J6" t="n">
-        <v>27.25</v>
+        <v>26.53</v>
       </c>
       <c r="K6" t="n">
-        <v>5002.53</v>
+        <v>4696.52</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>6.75</v>
+        <v>5.89</v>
       </c>
       <c r="R6" t="n">
-        <v>2955.3893</v>
+        <v>2840.0192</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6854</v>
+        <v>4.5361</v>
       </c>
       <c r="J7" t="n">
-        <v>30.51</v>
+        <v>30.74</v>
       </c>
       <c r="K7" t="n">
-        <v>2566.86</v>
+        <v>2503.74</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>4.78</v>
+        <v>4.22</v>
       </c>
       <c r="R7" t="n">
-        <v>2091.1748</v>
+        <v>2034.8357</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>54.9939</v>
+        <v>53.3435</v>
       </c>
       <c r="J8" t="n">
-        <v>4.26</v>
+        <v>4.07</v>
       </c>
       <c r="K8" t="n">
-        <v>4208.49</v>
+        <v>3899.42</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>9.42</v>
+        <v>7.96</v>
       </c>
       <c r="R8" t="n">
-        <v>4120.7218</v>
+        <v>3838.8867</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>16.1489</v>
+        <v>17.3261</v>
       </c>
       <c r="J9" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="K9" t="n">
-        <v>570.11</v>
+        <v>574.25</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
       <c r="R9" t="n">
-        <v>447.8757</v>
+        <v>434.8604</v>
       </c>
     </row>
   </sheetData>
